--- a/manuscript/tables/Table-S7a-pattern-analysis.xlsx
+++ b/manuscript/tables/Table-S7a-pattern-analysis.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Table-S4a-pattern-analysis" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Table-S7a-pattern-analysis" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -10163,11 +10163,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -10183,6 +10184,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -10232,7 +10240,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10256,16 +10264,16 @@
   <dimension ref="A1:D1752"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9336734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
